--- a/Predictions_Files/save_predictions_EURUSD.xlsx
+++ b/Predictions_Files/save_predictions_EURUSD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,6 +966,219 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:31:02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-1475.690517073093</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1460.511054877972</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1475.690517073093</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1460.511054877972</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.58359070287013</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1461.239195121875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1462.817015853582</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1461.239195121875</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1462.817015853582</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.9459651839047928</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.004161611</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.00274217363</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.00129557797</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.00245931279</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.00352574986</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.00228014264</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0001244715900000001</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:36:50</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1475.690517073093</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1460.511054877972</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1475.690517073093</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1460.511054877972</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.58359070287013</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1461.239195121875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1462.817015853582</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1461.239195121875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1462.817015853582</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.9459651839047928</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.004161611</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00274217363</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00129557797</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.00245931279</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00352574986</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.00228014264</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0001244715900000001</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:38:05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-1475.690517073093</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1460.511054877972</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1475.690517073093</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1460.511054877972</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.58359070287013</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1461.239195121875</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1462.817015853582</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1461.239195121875</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1462.817015853582</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.9459651839047928</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.004161611</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00274217363</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.00129557797</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.00245931279</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.00352574986</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.00228014264</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0001244715900000001</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
